--- a/일정계획표.xlsx
+++ b/일정계획표.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\2021 2학기 강의자료\네트워크프로그래밍\TeamProject\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{675267A8-11BC-4EC1-A45D-C95127DF283E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86DAE17-A7E7-4FC2-813E-DD85BDCA1956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
   <si>
     <t>2일</t>
   </si>
@@ -144,18 +144,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>클라이언트 구조 만들기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 패킷 전송</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 수락 패킷 전송</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>맵 불러오기 구현</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -172,33 +160,9 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>게임 시작 패킷 전송</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 및 버그 수정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>예외 처리 클래스</t>
   </si>
   <si>
-    <t>플레이어 초기위치와 타입을 생성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>오브젝트 충돌체크</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 수락 후 맵 정보 초기화</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">비드 정보 업데이트 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">비드 상태 처리 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -211,22 +175,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>게임 종료 조건 확인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>게임 종료 완료 처리 및 화면 업데이트</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">클라이언트 접속 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰레드 자원 동기화</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>최종 테스트 및 버그 수정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -235,14 +187,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>메시지, 타입 정의</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>공용 구조체</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>스레드 함수 생성 및 수신 기능 구현</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -251,22 +195,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>키 정보, 탈출구 상태 업데이트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>새로운 플레이어 위치 계산</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>비드 정보 메시지 전송</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>키, 탈출구 상태 메시지 전송</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>사운드 작업</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -284,6 +216,90 @@
   </si>
   <si>
     <t>(12월)1일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입 정의, 공용 구조체</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지, 서버 구조 만들기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 구조. 클래스, 함수 정의</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 구조, 클래스, 함수 정의</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작 패킷 전송(맵 정보, 초기 위치)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트 접속, 쓰레드 할당</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트(맵, 플레이어 렌더링 확인)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 (위치 계산 및 충돌체크 중간 점검)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈출구 활성화 조건 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>비드 충돌체크 및 자원 동기화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>키 충돌체크 및 자원 동기화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>술래와 러너의 충돌체크</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>술래의 승리조건 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>러너의 승리조건 확인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 충돌체크 로직 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 HP, 위치 메시지 전송</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 정보 메시지 전송</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>승리조건 메시지 전송</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 (메시지 처리, 화면 업데이트)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 (게임 완료, 대기화면 테스트)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +307,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,15 +347,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -479,7 +486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -492,12 +499,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -530,6 +531,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -863,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808FE5DC-E203-4BDA-A160-15A588217312}">
   <dimension ref="A3:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -874,7 +878,7 @@
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="41.125" customWidth="1"/>
     <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="31.125" customWidth="1"/>
+    <col min="6" max="6" width="32.375" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -882,34 +886,34 @@
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>66</v>
+      <c r="G4" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>68</v>
+      <c r="A5" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
@@ -922,419 +926,386 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>36</v>
+      <c r="F12" t="s">
+        <v>60</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="7"/>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="F17" s="15"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
+      <c r="B18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="7"/>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="F22" s="15"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
+      <c r="B25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="3"/>
+      <c r="B32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>69</v>
+      <c r="A33" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1344,58 +1315,32 @@
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" s="7"/>
+      <c r="B34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="7"/>
+      <c r="B35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="7"/>
+      <c r="B36" s="2"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B37" s="2"/>
@@ -1406,37 +1351,37 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" s="9"/>
+      <c r="B38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="11"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/일정계획표.xlsx
+++ b/일정계획표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wltjd\OneDrive\바탕 화면\2021 2학기 강의자료\네트워크프로그래밍\TeamProject\Multi-3D-PacMan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86DAE17-A7E7-4FC2-813E-DD85BDCA1956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1CAF5D-A145-44BF-BC8E-88ECD4CA9C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{CA08BBB5-14F5-460E-B4ED-A4EB4C70ABF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -307,7 +307,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +347,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -486,7 +495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -533,6 +542,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -868,7 +880,7 @@
   <dimension ref="A3:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -920,7 +932,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="16" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="3"/>
